--- a/OvcharkaBoard/Project Outputs for OvcharkaBoard/OvcharkaBoard.xlsx
+++ b/OvcharkaBoard/Project Outputs for OvcharkaBoard/OvcharkaBoard.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\OvcharkaBoard\OvcharkaBoard\Project Outputs for OvcharkaBoard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8070F4F2-27F0-4663-A867-030613B540A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007F94B9-F858-420C-886A-BEBE430C5672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1575" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OvcharkaBoard" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Делитель" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="132">
   <si>
     <t>Line #</t>
   </si>
@@ -108,9 +108,6 @@
   </si>
   <si>
     <t>C26, C27, C33, C34, C37, C38, C41, C42</t>
-  </si>
-  <si>
-    <t>0,1мкФ 50 В</t>
   </si>
   <si>
     <t>C28, C29, C36, C39, C44</t>
@@ -219,9 +216,6 @@
     <t>47мкГн</t>
   </si>
   <si>
-    <t>Резистор, типоразмера 2010</t>
-  </si>
-  <si>
     <t>L1</t>
   </si>
   <si>
@@ -258,9 +252,6 @@
     <t>R10</t>
   </si>
   <si>
-    <t>5кОм 1%</t>
-  </si>
-  <si>
     <t>R11</t>
   </si>
   <si>
@@ -277,12 +268,6 @@
   </si>
   <si>
     <t>1.8кОм</t>
-  </si>
-  <si>
-    <t>R16, R21</t>
-  </si>
-  <si>
-    <t>R17, R22</t>
   </si>
   <si>
     <t>SPDT 1P2T</t>
@@ -428,6 +413,27 @@
   </si>
   <si>
     <t>Сумма по каждому компоненту</t>
+  </si>
+  <si>
+    <t>R16, R17, R21, R22</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>4.7кОм 1%</t>
+  </si>
+  <si>
+    <t>Дроссль cd54</t>
+  </si>
+  <si>
+    <t>100нФ 50 В</t>
+  </si>
+  <si>
+    <t>На сколько плат хватит компонента</t>
   </si>
 </sst>
 </file>
@@ -476,7 +482,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -609,32 +615,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -670,23 +654,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
@@ -725,14 +698,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -748,7 +718,27 @@
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1071,8 +1061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1088,7 +1078,7 @@
     <col min="9" max="9" width="22.88671875" customWidth="1"/>
     <col min="10" max="10" width="23.109375" customWidth="1"/>
     <col min="11" max="11" width="20.5546875" customWidth="1"/>
-    <col min="12" max="12" width="19.44140625" customWidth="1"/>
+    <col min="12" max="12" width="32.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -1108,22 +1098,24 @@
         <v>5</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="J1" s="39" t="s">
-        <v>129</v>
+        <v>106</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>124</v>
       </c>
       <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
+      <c r="L1" s="9" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="2" spans="1:12" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -1141,23 +1133,29 @@
       <c r="E2" s="5">
         <v>8</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="G2" s="5"/>
+      <c r="F2" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" s="5">
+        <f>19+42.11</f>
+        <v>61.11</v>
+      </c>
       <c r="H2" s="5">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="I2" s="3">
-        <f t="shared" ref="I2:I40" si="0">G2/H2</f>
-        <v>0</v>
+        <f t="shared" ref="I2:I33" si="0">G2/H2</f>
+        <v>0.61109999999999998</v>
       </c>
       <c r="J2" s="5">
         <f>I2*E2</f>
-        <v>0</v>
+        <v>4.8887999999999998</v>
       </c>
       <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
+      <c r="L2" s="5">
+        <f>H2/E2</f>
+        <v>12.5</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -1167,7 +1165,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>10</v>
@@ -1175,23 +1173,29 @@
       <c r="E3" s="3">
         <v>3</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="G3" s="3"/>
+      <c r="F3" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G3" s="3">
+        <f>75+85.3</f>
+        <v>160.30000000000001</v>
+      </c>
       <c r="H3" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I3" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16.03</v>
       </c>
       <c r="J3" s="5">
-        <f t="shared" ref="J3:J46" si="1">I3*E3</f>
-        <v>0</v>
+        <f t="shared" ref="J3:J33" si="1">I3*E3</f>
+        <v>48.09</v>
       </c>
       <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
+      <c r="L3" s="5">
+        <f t="shared" ref="L3:L45" si="2">H3/E3</f>
+        <v>3.3333333333333335</v>
+      </c>
     </row>
     <row r="4" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -1209,23 +1213,29 @@
       <c r="E4" s="3">
         <v>4</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="G4" s="3"/>
+      <c r="F4" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G4" s="3">
+        <f>18+42.11</f>
+        <v>60.11</v>
+      </c>
       <c r="H4" s="3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="I4" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.60109999999999997</v>
       </c>
       <c r="J4" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.4043999999999999</v>
       </c>
       <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
+      <c r="L4" s="5">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
@@ -1243,23 +1253,29 @@
       <c r="E5" s="3">
         <v>2</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="G5" s="3"/>
+      <c r="F5" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G5" s="3">
+        <f>18+42.11</f>
+        <v>60.11</v>
+      </c>
       <c r="H5" s="3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="I5" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.60109999999999997</v>
       </c>
       <c r="J5" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.2021999999999999</v>
       </c>
       <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
+      <c r="L5" s="5">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
     </row>
     <row r="6" spans="1:12" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
@@ -1277,23 +1293,29 @@
       <c r="E6" s="3">
         <v>6</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="G6" s="3"/>
+      <c r="F6" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="G6" s="3">
+        <f>9*53</f>
+        <v>477</v>
+      </c>
       <c r="H6" s="3">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="I6" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J6" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
+      <c r="L6" s="5">
+        <f t="shared" si="2"/>
+        <v>8.8333333333333339</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
@@ -1311,23 +1333,29 @@
       <c r="E7" s="3">
         <v>3</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="G7" s="3"/>
+      <c r="F7" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G7" s="3">
+        <f>18+42.11</f>
+        <v>60.11</v>
+      </c>
       <c r="H7" s="3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="I7" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.60109999999999997</v>
       </c>
       <c r="J7" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.8032999999999999</v>
       </c>
       <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
+      <c r="L7" s="5">
+        <f t="shared" si="2"/>
+        <v>33.333333333333336</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
@@ -1343,23 +1371,29 @@
       <c r="E8" s="3">
         <v>1</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="G8" s="3"/>
+      <c r="F8" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="G8" s="3">
+        <f>9*20</f>
+        <v>180</v>
+      </c>
       <c r="H8" s="3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="I8" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J8" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
+      <c r="L8" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
     </row>
     <row r="9" spans="1:12" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
@@ -1377,110 +1411,128 @@
       <c r="E9" s="3">
         <v>8</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="G9" s="3"/>
+      <c r="F9" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G9" s="3">
+        <f>73+42.11</f>
+        <v>115.11</v>
+      </c>
       <c r="H9" s="3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="I9" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.1511</v>
       </c>
       <c r="J9" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9.2088000000000001</v>
       </c>
       <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
+      <c r="L9" s="5">
+        <f t="shared" si="2"/>
+        <v>12.5</v>
+      </c>
     </row>
     <row r="10" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>130</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10" s="3">
         <v>5</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="G10" s="3"/>
+      <c r="F10" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G10" s="3">
+        <f>51+10.22</f>
+        <v>61.22</v>
+      </c>
       <c r="H10" s="3">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="I10" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.30609999999999998</v>
       </c>
       <c r="J10" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.5305</v>
       </c>
       <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
+      <c r="L10" s="5">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
     </row>
     <row r="11" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11" s="3">
         <v>4</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="G11" s="3"/>
+      <c r="F11" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" s="3">
+        <f>73+42.11</f>
+        <v>115.11</v>
+      </c>
       <c r="H11" s="3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="I11" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.1511</v>
       </c>
       <c r="J11" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.6044</v>
       </c>
       <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
+      <c r="L11" s="5">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
     </row>
     <row r="12" spans="1:12" ht="97.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="E12" s="3">
         <v>1</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G12" s="3">
         <f>331+109.17</f>
@@ -1498,24 +1550,27 @@
         <v>44.017000000000003</v>
       </c>
       <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="L12" s="5">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="E13" s="3">
         <v>1</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G13" s="3">
         <f>161+22.98</f>
@@ -1533,26 +1588,29 @@
         <v>18.398</v>
       </c>
       <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="L13" s="5">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="14" spans="1:12" ht="67.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="E14" s="3">
         <v>1</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G14" s="3">
         <f>964+170.61</f>
@@ -1570,24 +1628,27 @@
         <v>113.46100000000001</v>
       </c>
       <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="L14" s="5">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="E15" s="3">
         <v>1</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G15" s="3">
         <f>101+46.92</f>
@@ -1605,24 +1666,27 @@
         <v>14.792000000000002</v>
       </c>
       <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="L15" s="5">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="E16" s="3">
         <v>1</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G16" s="3">
         <f>50+89.06</f>
@@ -1640,26 +1704,29 @@
         <v>13.906000000000001</v>
       </c>
       <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="L16" s="5">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="17" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="E17" s="3">
         <v>1</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G17" s="3">
         <f>42+65.33</f>
@@ -1677,26 +1744,29 @@
         <v>107.33</v>
       </c>
       <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+      <c r="L17" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="E18" s="3">
         <v>4</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G18" s="3">
         <f>1939+303.15</f>
@@ -1714,56 +1784,65 @@
         <v>896.86</v>
       </c>
       <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
+      <c r="L18" s="5">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="E19" s="3">
         <v>1</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="G19" s="3"/>
+      <c r="F19" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G19" s="3">
+        <f>83+99.6</f>
+        <v>182.6</v>
+      </c>
       <c r="H19" s="3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="I19" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9.129999999999999</v>
       </c>
       <c r="J19" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9.129999999999999</v>
       </c>
       <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
+      <c r="L19" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="E20" s="3">
         <v>1</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G20" s="3">
         <f>172+57.46</f>
@@ -1781,24 +1860,27 @@
         <v>22.946000000000002</v>
       </c>
       <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
+      <c r="L20" s="5">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="E21" s="3">
         <v>1</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G21" s="3">
         <f>63+70.87</f>
@@ -1816,24 +1898,27 @@
         <v>13.387</v>
       </c>
       <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
+      <c r="L21" s="5">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="22" spans="1:12" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="E22" s="3">
         <v>1</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G22" s="3">
         <v>65</v>
@@ -1850,24 +1935,27 @@
         <v>0.65</v>
       </c>
       <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
+      <c r="L22" s="5">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
     </row>
     <row r="23" spans="1:12" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E23" s="3">
         <v>5</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G23" s="3">
         <v>56</v>
@@ -1884,288 +1972,331 @@
         <v>2.8000000000000003</v>
       </c>
       <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
+      <c r="L23" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="E24" s="3">
         <v>1</v>
       </c>
-      <c r="F24" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="G24" s="3"/>
+      <c r="F24" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G24" s="3">
+        <v>88</v>
+      </c>
       <c r="H24" s="3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="I24" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="J24" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
+      <c r="L24" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="E25" s="3">
         <v>2</v>
       </c>
-      <c r="F25" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="G25" s="3"/>
+      <c r="F25" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G25" s="3">
+        <v>41</v>
+      </c>
       <c r="H25" s="3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="I25" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="J25" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.82</v>
       </c>
       <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
+      <c r="L25" s="5">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E26" s="3">
         <v>3</v>
       </c>
-      <c r="F26" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="G26" s="3"/>
+      <c r="F26" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G26" s="3">
+        <v>41</v>
+      </c>
       <c r="H26" s="3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="I26" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="J26" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
+      <c r="L26" s="5">
+        <f t="shared" si="2"/>
+        <v>33.333333333333336</v>
+      </c>
     </row>
     <row r="27" spans="1:12" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E27" s="3">
         <v>8</v>
       </c>
-      <c r="F27" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="G27" s="3"/>
+      <c r="F27" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G27" s="3">
+        <v>41</v>
+      </c>
       <c r="H27" s="3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="I27" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="J27" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.28</v>
       </c>
       <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
+      <c r="L27" s="5">
+        <f t="shared" si="2"/>
+        <v>12.5</v>
+      </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E28" s="3">
         <v>1</v>
       </c>
-      <c r="F28" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="G28" s="3"/>
+      <c r="F28" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G28" s="3">
+        <v>41</v>
+      </c>
       <c r="H28" s="3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="I28" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="J28" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
+      <c r="L28" s="5">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E29" s="3">
         <v>1</v>
       </c>
-      <c r="F29" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="G29" s="3"/>
+      <c r="F29" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G29" s="3">
+        <v>41</v>
+      </c>
       <c r="H29" s="3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="I29" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="J29" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
+      <c r="L29" s="5">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="1" t="s">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E30" s="3">
         <v>1</v>
       </c>
-      <c r="F30" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="G30" s="3"/>
+      <c r="F30" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G30" s="3">
+        <v>41</v>
+      </c>
       <c r="H30" s="3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="I30" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="J30" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
+      <c r="L30" s="5">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E31" s="3">
         <v>1</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G31" s="3">
         <v>117</v>
       </c>
-      <c r="G31" s="3"/>
       <c r="H31" s="3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="I31" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.85</v>
       </c>
       <c r="J31" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.85</v>
       </c>
       <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
+      <c r="L31" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E32" s="3">
         <v>2</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G32" s="3">
         <f>249+133.11</f>
@@ -2183,514 +2314,530 @@
         <v>15.2844</v>
       </c>
       <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L32" s="5">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="E33" s="3">
-        <v>2</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="G33" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G33" s="3">
+        <v>127</v>
+      </c>
       <c r="H33" s="3">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="I33" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="J33" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10.16</v>
       </c>
       <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
+      <c r="L33" s="5">
+        <f t="shared" si="2"/>
+        <v>12.5</v>
+      </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="A34" s="7"/>
       <c r="B34" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="C34" s="33" t="s">
+        <v>121</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E34" s="3">
-        <v>2</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3">
-        <v>1</v>
-      </c>
-      <c r="I34" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J34" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
-      <c r="B35" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C35" s="36" t="s">
-        <v>126</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E35" s="3">
-        <v>1</v>
-      </c>
-      <c r="F35" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="G35" s="3">
+        <v>1</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G34" s="3">
         <f>186+144.6</f>
         <v>330.6</v>
       </c>
+      <c r="H34" s="3">
+        <v>20</v>
+      </c>
+      <c r="I34" s="3">
+        <f>G34/H34</f>
+        <v>16.53</v>
+      </c>
+      <c r="J34" s="5">
+        <f>I34*E34</f>
+        <v>16.53</v>
+      </c>
+      <c r="K34" s="3"/>
+      <c r="L34" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E35" s="3">
+        <v>2</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="G35" s="3">
+        <v>500</v>
+      </c>
       <c r="H35" s="3">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I35" s="3">
-        <f t="shared" si="0"/>
-        <v>16.53</v>
+        <f>G35/H35</f>
+        <v>5</v>
       </c>
       <c r="J35" s="5">
-        <f t="shared" si="1"/>
-        <v>16.53</v>
+        <f>I35*E35</f>
+        <v>10</v>
       </c>
       <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L35" s="5">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="C36" s="36" t="s">
-        <v>125</v>
+      <c r="B36" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E36" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="G36" s="3">
-        <v>500</v>
+        <v>83</v>
       </c>
       <c r="H36" s="3">
         <v>100</v>
       </c>
       <c r="I36" s="3">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f>G36/H36</f>
+        <v>0.83</v>
       </c>
       <c r="J36" s="5">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f>I36*E36</f>
+        <v>2.4899999999999998</v>
       </c>
       <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
+      <c r="L36" s="5">
+        <f t="shared" si="2"/>
+        <v>33.333333333333336</v>
+      </c>
     </row>
     <row r="37" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="A37" s="7"/>
       <c r="B37" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="E37" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G37" s="3">
-        <v>83</v>
-      </c>
-      <c r="H37" s="3">
-        <v>100</v>
-      </c>
-      <c r="I37" s="3">
-        <f t="shared" si="0"/>
-        <v>0.83</v>
-      </c>
-      <c r="J37" s="5">
-        <f t="shared" si="1"/>
-        <v>2.4899999999999998</v>
-      </c>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-    </row>
-    <row r="38" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
-      <c r="B38" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E38" s="3">
-        <v>1</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="G38" s="3">
         <f>207+127.37</f>
         <v>334.37</v>
       </c>
-      <c r="H38" s="3">
+      <c r="H37" s="3">
         <v>10</v>
       </c>
-      <c r="I38" s="3">
-        <f t="shared" si="0"/>
+      <c r="I37" s="3">
+        <f>G37/H37</f>
         <v>33.436999999999998</v>
       </c>
-      <c r="J38" s="5">
-        <f t="shared" si="1"/>
+      <c r="J37" s="5">
+        <f>I37*E37</f>
         <v>33.436999999999998</v>
       </c>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-    </row>
-    <row r="39" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="18"/>
-      <c r="B39" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="C39" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="D39" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="E39" s="13">
-        <v>1</v>
-      </c>
-      <c r="F39" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="G39" s="13">
+      <c r="K37" s="3"/>
+      <c r="L37" s="5">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="18"/>
+      <c r="B38" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="E38" s="13">
+        <v>1</v>
+      </c>
+      <c r="F38" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="G38" s="13">
         <f>114+102.99</f>
         <v>216.99</v>
       </c>
-      <c r="H39" s="13">
+      <c r="H38" s="13">
         <v>20</v>
       </c>
-      <c r="I39" s="13">
-        <f t="shared" si="0"/>
+      <c r="I38" s="13">
+        <f>G38/H38</f>
         <v>10.849500000000001</v>
       </c>
+      <c r="J38" s="5">
+        <f>I38*E38</f>
+        <v>10.849500000000001</v>
+      </c>
+      <c r="K38" s="13"/>
+      <c r="L38" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="22"/>
+      <c r="B39" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="E39" s="25">
+        <v>1</v>
+      </c>
+      <c r="F39" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="G39" s="25">
+        <v>130</v>
+      </c>
+      <c r="H39" s="25">
+        <v>1</v>
+      </c>
+      <c r="I39" s="25">
+        <f>G39/H39</f>
+        <v>130</v>
+      </c>
       <c r="J39" s="5">
-        <f t="shared" si="1"/>
-        <v>10.849500000000001</v>
-      </c>
-      <c r="K39" s="13"/>
-      <c r="L39" s="13"/>
+        <f>I39*E39</f>
+        <v>130</v>
+      </c>
+      <c r="K39" s="25"/>
+      <c r="L39" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="40" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="22"/>
-      <c r="B40" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="C40" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="D40" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="E40" s="25">
-        <v>1</v>
-      </c>
-      <c r="F40" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="G40" s="25">
-        <v>130</v>
-      </c>
-      <c r="H40" s="25">
-        <v>1</v>
-      </c>
-      <c r="I40" s="25">
-        <f>G40/H40</f>
-        <v>130</v>
-      </c>
+      <c r="A40" s="27"/>
+      <c r="B40" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="14"/>
       <c r="J40" s="5">
-        <f t="shared" si="1"/>
-        <v>130</v>
-      </c>
-      <c r="K40" s="25"/>
-      <c r="L40" s="27"/>
-    </row>
-    <row r="41" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="28"/>
-      <c r="B41" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="5">
-        <f t="shared" si="1"/>
+        <f>I40*E40</f>
         <v>0</v>
       </c>
-      <c r="K41" s="29"/>
-      <c r="L41" s="30"/>
-    </row>
-    <row r="42" spans="1:12" s="15" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="31"/>
-      <c r="B42" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="C42" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="D42" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="E42" s="32">
-        <v>1</v>
-      </c>
-      <c r="F42" s="33" t="s">
+      <c r="K40" s="28"/>
+      <c r="L40" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" s="15" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="29"/>
+      <c r="B41" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="C41" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="G42" s="32">
+      <c r="D41" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="E41" s="30">
+        <v>1</v>
+      </c>
+      <c r="F41" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="G41" s="30">
         <f>68+51.71</f>
         <v>119.71000000000001</v>
       </c>
-      <c r="H42" s="32">
+      <c r="H41" s="30">
         <v>10</v>
       </c>
-      <c r="I42" s="34">
-        <f t="shared" ref="I41:I42" si="2">G42/H42</f>
+      <c r="I41" s="32">
+        <f t="shared" ref="I41" si="3">G41/H41</f>
         <v>11.971</v>
       </c>
-      <c r="J42" s="5">
-        <f t="shared" si="1"/>
+      <c r="J41" s="5">
+        <f>I41*E41</f>
         <v>11.971</v>
       </c>
-      <c r="K42" s="32"/>
-      <c r="L42" s="35"/>
-    </row>
-    <row r="43" spans="1:12" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E43" s="3">
+      <c r="K41" s="30"/>
+      <c r="L41" s="5">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E42" s="3">
         <v>8</v>
       </c>
-      <c r="F43" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="G43" s="3">
+      <c r="F42" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G42" s="3">
         <f>154+20.79</f>
         <v>174.79</v>
       </c>
+      <c r="H42" s="3">
+        <v>10</v>
+      </c>
+      <c r="I42" s="3">
+        <f>G42/H42</f>
+        <v>17.478999999999999</v>
+      </c>
+      <c r="J42" s="5">
+        <f>I42*E42</f>
+        <v>139.83199999999999</v>
+      </c>
+      <c r="K42" s="3"/>
+      <c r="L42" s="5">
+        <f t="shared" si="2"/>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E43" s="3">
+        <v>2</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G43" s="3">
+        <f>124+211.37</f>
+        <v>335.37</v>
+      </c>
       <c r="H43" s="3">
+        <v>20</v>
+      </c>
+      <c r="I43" s="3">
+        <f t="shared" ref="I43:I45" si="4">G43/H43</f>
+        <v>16.7685</v>
+      </c>
+      <c r="J43" s="5">
+        <f>I43*E43</f>
+        <v>33.536999999999999</v>
+      </c>
+      <c r="K43" s="3"/>
+      <c r="L43" s="5">
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="I43" s="3">
-        <f>G43/H43</f>
-        <v>17.478999999999999</v>
-      </c>
-      <c r="J43" s="5">
-        <f t="shared" si="1"/>
-        <v>139.83199999999999</v>
-      </c>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
     </row>
     <row r="44" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="A44" s="7"/>
       <c r="B44" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="C44" s="36" t="s">
-        <v>124</v>
+        <v>98</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="E44" s="3">
         <v>2</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G44" s="3">
-        <f>124+211.37</f>
-        <v>335.37</v>
-      </c>
-      <c r="H44" s="3">
-        <v>20</v>
-      </c>
-      <c r="I44" s="3">
-        <f t="shared" ref="I44:I46" si="3">G44/H44</f>
-        <v>16.7685</v>
-      </c>
-      <c r="J44" s="5">
-        <f t="shared" si="1"/>
-        <v>33.536999999999999</v>
-      </c>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A45" s="7"/>
-      <c r="B45" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E45" s="3">
-        <v>2</v>
-      </c>
-      <c r="F45" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="G45" s="3">
         <f>213+312.6</f>
         <v>525.6</v>
       </c>
+      <c r="H44" s="3">
+        <v>10</v>
+      </c>
+      <c r="I44" s="3">
+        <f t="shared" si="4"/>
+        <v>52.56</v>
+      </c>
+      <c r="J44" s="5">
+        <f>I44*E44</f>
+        <v>105.12</v>
+      </c>
+      <c r="K44" s="3"/>
+      <c r="L44" s="5">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E45" s="3">
+        <v>3</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G45" s="3">
+        <f>292+157</f>
+        <v>449</v>
+      </c>
       <c r="H45" s="3">
         <v>10</v>
       </c>
       <c r="I45" s="3">
-        <f t="shared" si="3"/>
-        <v>52.56</v>
+        <f t="shared" si="4"/>
+        <v>44.9</v>
       </c>
       <c r="J45" s="5">
-        <f t="shared" si="1"/>
-        <v>105.12</v>
+        <f>I45*E45</f>
+        <v>134.69999999999999</v>
       </c>
       <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E46" s="3">
-        <v>3</v>
-      </c>
-      <c r="F46" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="G46" s="3">
-        <f>292+157</f>
-        <v>449</v>
-      </c>
-      <c r="H46" s="3">
-        <v>10</v>
-      </c>
-      <c r="I46" s="3">
-        <f t="shared" si="3"/>
-        <v>44.9</v>
-      </c>
-      <c r="J46" s="5">
-        <f t="shared" si="1"/>
-        <v>134.69999999999999</v>
-      </c>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
+      <c r="L45" s="5">
+        <f t="shared" si="2"/>
+        <v>3.3333333333333335</v>
+      </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F47" s="5"/>
     </row>
     <row r="53" spans="6:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="F53" s="38" t="s">
-        <v>127</v>
+      <c r="F53" s="35" t="s">
+        <v>122</v>
       </c>
       <c r="G53">
-        <f>SUM(G2:G46)</f>
-        <v>8461.09</v>
-      </c>
-      <c r="H53" s="37" t="s">
-        <v>128</v>
+        <f>SUM(G2:G45)</f>
+        <v>10571.870000000003</v>
+      </c>
+      <c r="H53" s="34" t="s">
+        <v>123</v>
       </c>
       <c r="I53">
-        <f>SUM(J41:J46,J22:J39,J2:J21)</f>
-        <v>1762.2979</v>
+        <f>SUM(J40:J45,J22:J38,J2:J21)</f>
+        <v>1935.1303000000003</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A40 A43:A1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="A1:A39 A47:A1048576 A42:A45">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L45">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
+      <formula>0</formula>
+      <formula>1.5</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="F43" r:id="rId1" xr:uid="{6A8D4F05-75E2-4755-8EFA-40BCF3E80440}"/>
+    <hyperlink ref="F42" r:id="rId1" xr:uid="{6A8D4F05-75E2-4755-8EFA-40BCF3E80440}"/>
     <hyperlink ref="F32" r:id="rId2" xr:uid="{525AFAB4-953E-4822-B657-BE9CBFCF991C}"/>
     <hyperlink ref="F18" r:id="rId3" xr:uid="{8EF7263C-5268-48ED-ABFE-44059C02131D}"/>
     <hyperlink ref="F17" r:id="rId4" xr:uid="{970A5D34-B83F-4733-888A-E9348A150062}"/>
@@ -2703,16 +2850,36 @@
     <hyperlink ref="F21" r:id="rId11" xr:uid="{B454BA5B-4DB4-4CD8-AA0D-8BC134B08D68}"/>
     <hyperlink ref="F22" r:id="rId12" xr:uid="{3F70061A-A92F-409F-8734-37F20E4710DD}"/>
     <hyperlink ref="F23" r:id="rId13" xr:uid="{E133A6ED-7CE1-48EB-99A0-BD0073E2D977}"/>
-    <hyperlink ref="F37" r:id="rId14" xr:uid="{03419C88-5C2D-4858-BA0D-DBF9CD86A635}"/>
-    <hyperlink ref="F38" r:id="rId15" xr:uid="{44B456DE-FCC5-48E6-A72C-10BB9E643F1B}"/>
-    <hyperlink ref="F39" r:id="rId16" xr:uid="{5E591ADA-A85C-47BE-9E7F-829DA7266131}"/>
-    <hyperlink ref="F40" r:id="rId17" xr:uid="{5E83188B-3769-4228-AB84-A304E3BFBB70}"/>
-    <hyperlink ref="F42" r:id="rId18" xr:uid="{C6E14E2C-8B77-42F5-AA53-FDC56D9AABC2}"/>
-    <hyperlink ref="F44" r:id="rId19" xr:uid="{CBF3593B-07FD-4A39-88C3-7CE5B14DB584}"/>
-    <hyperlink ref="F45" r:id="rId20" xr:uid="{C26E1D82-A081-4BA4-A0DA-4963908F980C}"/>
-    <hyperlink ref="F46" r:id="rId21" xr:uid="{3300471C-CFF2-47A1-891E-E2828FDD5BA9}"/>
-    <hyperlink ref="F36" r:id="rId22" xr:uid="{1880BB73-BE0F-47E4-A837-7AEEA703B133}"/>
-    <hyperlink ref="F35" r:id="rId23" xr:uid="{9DE6EC84-A69C-488B-AEAC-CF7A1D14406B}"/>
+    <hyperlink ref="F36" r:id="rId14" xr:uid="{03419C88-5C2D-4858-BA0D-DBF9CD86A635}"/>
+    <hyperlink ref="F37" r:id="rId15" xr:uid="{44B456DE-FCC5-48E6-A72C-10BB9E643F1B}"/>
+    <hyperlink ref="F38" r:id="rId16" xr:uid="{5E591ADA-A85C-47BE-9E7F-829DA7266131}"/>
+    <hyperlink ref="F39" r:id="rId17" xr:uid="{5E83188B-3769-4228-AB84-A304E3BFBB70}"/>
+    <hyperlink ref="F41" r:id="rId18" xr:uid="{C6E14E2C-8B77-42F5-AA53-FDC56D9AABC2}"/>
+    <hyperlink ref="F43" r:id="rId19" xr:uid="{CBF3593B-07FD-4A39-88C3-7CE5B14DB584}"/>
+    <hyperlink ref="F44" r:id="rId20" xr:uid="{C26E1D82-A081-4BA4-A0DA-4963908F980C}"/>
+    <hyperlink ref="F45" r:id="rId21" xr:uid="{3300471C-CFF2-47A1-891E-E2828FDD5BA9}"/>
+    <hyperlink ref="F35" r:id="rId22" xr:uid="{1880BB73-BE0F-47E4-A837-7AEEA703B133}"/>
+    <hyperlink ref="F34" r:id="rId23" xr:uid="{9DE6EC84-A69C-488B-AEAC-CF7A1D14406B}"/>
+    <hyperlink ref="F33" r:id="rId24" xr:uid="{EB219793-C659-4926-8940-54C90169D9AC}"/>
+    <hyperlink ref="F31" r:id="rId25" xr:uid="{8AA0267A-1DAD-4695-B7C4-606BC7D875F6}"/>
+    <hyperlink ref="F30" r:id="rId26" xr:uid="{01D367F6-40C3-42DD-B238-A270A96B30C2}"/>
+    <hyperlink ref="F29" r:id="rId27" xr:uid="{3E41896B-917F-4B36-8637-0EFFC14E0ACC}"/>
+    <hyperlink ref="F28" r:id="rId28" xr:uid="{020B506D-5D36-41AD-88AB-7D7A513D38A2}"/>
+    <hyperlink ref="F27" r:id="rId29" xr:uid="{3DF84074-7DF6-4285-BFDF-9633E60C951C}"/>
+    <hyperlink ref="F26" r:id="rId30" xr:uid="{0846EA50-285C-4A31-982D-6C54AAEACC8C}"/>
+    <hyperlink ref="F25" r:id="rId31" xr:uid="{E8DCCF1B-26E2-426A-BA50-00C226813F97}"/>
+    <hyperlink ref="F24" r:id="rId32" xr:uid="{B2769C69-61C4-4F4C-BE0A-DD55DF00E281}"/>
+    <hyperlink ref="F19" r:id="rId33" xr:uid="{36845F23-97D2-414E-A9A8-27546DF50CEB}"/>
+    <hyperlink ref="F6" r:id="rId34" xr:uid="{249F3A8C-FF98-4457-BFCA-8FA1BE9BC180}"/>
+    <hyperlink ref="F3" r:id="rId35" xr:uid="{FD2E3C0C-7688-4BDF-81EF-8333C0A64922}"/>
+    <hyperlink ref="F2" r:id="rId36" xr:uid="{7D9AABD2-AD45-40CA-A308-F2C213B3D88A}"/>
+    <hyperlink ref="F4" r:id="rId37" xr:uid="{E07F498F-ABC8-4A40-AEF2-267C9F9420AB}"/>
+    <hyperlink ref="F5" r:id="rId38" xr:uid="{EE90A15C-77EF-40E4-80B9-2A690EE9EFCA}"/>
+    <hyperlink ref="F7" r:id="rId39" xr:uid="{09938B23-5DE5-4612-88A1-4AE06B6BEE9C}"/>
+    <hyperlink ref="F8" r:id="rId40" display="Ссылка на Алиэкспресс" xr:uid="{44B74FDF-6F4C-469A-9F83-05E74C542EB0}"/>
+    <hyperlink ref="F9" r:id="rId41" xr:uid="{955F3F77-B2CD-4AF4-802C-13A6CE0CD389}"/>
+    <hyperlink ref="F10" r:id="rId42" xr:uid="{05904F45-2C33-4CBD-BD85-20B19241C906}"/>
+    <hyperlink ref="F11" r:id="rId43" xr:uid="{DE99553C-B4F0-40DB-9506-679229AF8977}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2720,12 +2887,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1">
+        <f>5.1</f>
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2">
+        <f>1.64*B1</f>
+        <v>8.363999999999999</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>

--- a/OvcharkaBoard/Project Outputs for OvcharkaBoard/OvcharkaBoard.xlsx
+++ b/OvcharkaBoard/Project Outputs for OvcharkaBoard/OvcharkaBoard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\OvcharkaBoard\OvcharkaBoard\Project Outputs for OvcharkaBoard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007F94B9-F858-420C-886A-BEBE430C5672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF8C815D-6208-428D-988C-2DC2114E6E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OvcharkaBoard" sheetId="1" r:id="rId1"/>
@@ -718,7 +718,7 @@
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -726,16 +726,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1062,7 +1052,7 @@
   <dimension ref="A1:L53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2383,11 +2373,11 @@
         <v>20</v>
       </c>
       <c r="I34" s="3">
-        <f>G34/H34</f>
+        <f t="shared" ref="I34:I39" si="3">G34/H34</f>
         <v>16.53</v>
       </c>
       <c r="J34" s="5">
-        <f>I34*E34</f>
+        <f t="shared" ref="J34:J45" si="4">I34*E34</f>
         <v>16.53</v>
       </c>
       <c r="K34" s="3"/>
@@ -2422,11 +2412,11 @@
         <v>100</v>
       </c>
       <c r="I35" s="3">
-        <f>G35/H35</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="J35" s="5">
-        <f>I35*E35</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="K35" s="3"/>
@@ -2461,11 +2451,11 @@
         <v>100</v>
       </c>
       <c r="I36" s="3">
-        <f>G36/H36</f>
+        <f t="shared" si="3"/>
         <v>0.83</v>
       </c>
       <c r="J36" s="5">
-        <f>I36*E36</f>
+        <f t="shared" si="4"/>
         <v>2.4899999999999998</v>
       </c>
       <c r="K36" s="3"/>
@@ -2499,11 +2489,11 @@
         <v>10</v>
       </c>
       <c r="I37" s="3">
-        <f>G37/H37</f>
+        <f t="shared" si="3"/>
         <v>33.436999999999998</v>
       </c>
       <c r="J37" s="5">
-        <f>I37*E37</f>
+        <f t="shared" si="4"/>
         <v>33.436999999999998</v>
       </c>
       <c r="K37" s="3"/>
@@ -2537,11 +2527,11 @@
         <v>20</v>
       </c>
       <c r="I38" s="13">
-        <f>G38/H38</f>
+        <f t="shared" si="3"/>
         <v>10.849500000000001</v>
       </c>
       <c r="J38" s="5">
-        <f>I38*E38</f>
+        <f t="shared" si="4"/>
         <v>10.849500000000001</v>
       </c>
       <c r="K38" s="13"/>
@@ -2574,11 +2564,11 @@
         <v>1</v>
       </c>
       <c r="I39" s="25">
-        <f>G39/H39</f>
+        <f t="shared" si="3"/>
         <v>130</v>
       </c>
       <c r="J39" s="5">
-        <f>I39*E39</f>
+        <f t="shared" si="4"/>
         <v>130</v>
       </c>
       <c r="K39" s="25"/>
@@ -2600,7 +2590,7 @@
       <c r="H40" s="28"/>
       <c r="I40" s="14"/>
       <c r="J40" s="5">
-        <f>I40*E40</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K40" s="28"/>
@@ -2634,11 +2624,11 @@
         <v>10</v>
       </c>
       <c r="I41" s="32">
-        <f t="shared" ref="I41" si="3">G41/H41</f>
+        <f t="shared" ref="I41" si="5">G41/H41</f>
         <v>11.971</v>
       </c>
       <c r="J41" s="5">
-        <f>I41*E41</f>
+        <f t="shared" si="4"/>
         <v>11.971</v>
       </c>
       <c r="K41" s="30"/>
@@ -2678,7 +2668,7 @@
         <v>17.478999999999999</v>
       </c>
       <c r="J42" s="5">
-        <f>I42*E42</f>
+        <f t="shared" si="4"/>
         <v>139.83199999999999</v>
       </c>
       <c r="K42" s="3"/>
@@ -2714,11 +2704,11 @@
         <v>20</v>
       </c>
       <c r="I43" s="3">
-        <f t="shared" ref="I43:I45" si="4">G43/H43</f>
+        <f t="shared" ref="I43:I45" si="6">G43/H43</f>
         <v>16.7685</v>
       </c>
       <c r="J43" s="5">
-        <f>I43*E43</f>
+        <f t="shared" si="4"/>
         <v>33.536999999999999</v>
       </c>
       <c r="K43" s="3"/>
@@ -2752,11 +2742,11 @@
         <v>10</v>
       </c>
       <c r="I44" s="3">
+        <f t="shared" si="6"/>
+        <v>52.56</v>
+      </c>
+      <c r="J44" s="5">
         <f t="shared" si="4"/>
-        <v>52.56</v>
-      </c>
-      <c r="J44" s="5">
-        <f>I44*E44</f>
         <v>105.12</v>
       </c>
       <c r="K44" s="3"/>
@@ -2792,11 +2782,11 @@
         <v>10</v>
       </c>
       <c r="I45" s="3">
+        <f t="shared" si="6"/>
+        <v>44.9</v>
+      </c>
+      <c r="J45" s="5">
         <f t="shared" si="4"/>
-        <v>44.9</v>
-      </c>
-      <c r="J45" s="5">
-        <f>I45*E45</f>
         <v>134.69999999999999</v>
       </c>
       <c r="K45" s="3"/>
@@ -2826,7 +2816,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A39 A47:A1048576 A42:A45">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
